--- a/檳榔銷售統計.xlsx
+++ b/檳榔銷售統計.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottiblai/Desktop/Goodingk/銷售統計/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AE554E-CD78-A743-B9CE-997E2D433CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="21555" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33240" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="39">
   <si>
     <t>115.1.2檳榔銷售統計</t>
   </si>
@@ -124,17 +141,26 @@
   </si>
   <si>
     <t>華山店</t>
+  </si>
+  <si>
+    <t>粒數總計</t>
+  </si>
+  <si>
+    <t>總粒數：</t>
+  </si>
+  <si>
+    <t>總包數：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -182,7 +208,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -197,14 +223,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF006600"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -233,17 +251,24 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -260,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,6 +308,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -436,14 +470,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -451,121 +485,144 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 10" xfId="2"/>
-    <cellStyle name="一般 11" xfId="3"/>
-    <cellStyle name="一般 12" xfId="4"/>
-    <cellStyle name="一般 13" xfId="5"/>
-    <cellStyle name="一般 14" xfId="6"/>
-    <cellStyle name="一般 15" xfId="7"/>
-    <cellStyle name="一般 16" xfId="8"/>
-    <cellStyle name="一般 17" xfId="9"/>
-    <cellStyle name="一般 18" xfId="10"/>
-    <cellStyle name="一般 19" xfId="11"/>
-    <cellStyle name="一般 2" xfId="12"/>
-    <cellStyle name="一般 20" xfId="13"/>
-    <cellStyle name="一般 21" xfId="14"/>
-    <cellStyle name="一般 22" xfId="15"/>
-    <cellStyle name="一般 23" xfId="16"/>
-    <cellStyle name="一般 24" xfId="17"/>
-    <cellStyle name="一般 25" xfId="18"/>
-    <cellStyle name="一般 26" xfId="19"/>
-    <cellStyle name="一般 27" xfId="20"/>
-    <cellStyle name="一般 28" xfId="21"/>
-    <cellStyle name="一般 29" xfId="22"/>
-    <cellStyle name="一般 3" xfId="23"/>
-    <cellStyle name="一般 30" xfId="24"/>
-    <cellStyle name="一般 31" xfId="25"/>
-    <cellStyle name="一般 32" xfId="26"/>
-    <cellStyle name="一般 33" xfId="27"/>
-    <cellStyle name="一般 34" xfId="28"/>
-    <cellStyle name="一般 35" xfId="29"/>
-    <cellStyle name="一般 36" xfId="30"/>
-    <cellStyle name="一般 37" xfId="31"/>
-    <cellStyle name="一般 38" xfId="32"/>
-    <cellStyle name="一般 39" xfId="33"/>
-    <cellStyle name="一般 4" xfId="34"/>
-    <cellStyle name="一般 40" xfId="35"/>
-    <cellStyle name="一般 41" xfId="36"/>
-    <cellStyle name="一般 42" xfId="37"/>
-    <cellStyle name="一般 43" xfId="38"/>
-    <cellStyle name="一般 44" xfId="39"/>
-    <cellStyle name="一般 45" xfId="40"/>
-    <cellStyle name="一般 46" xfId="41"/>
-    <cellStyle name="一般 47" xfId="42"/>
-    <cellStyle name="一般 48" xfId="43"/>
-    <cellStyle name="一般 49" xfId="44"/>
-    <cellStyle name="一般 5" xfId="45"/>
-    <cellStyle name="一般 50" xfId="1"/>
-    <cellStyle name="一般 6" xfId="46"/>
-    <cellStyle name="一般 7" xfId="47"/>
-    <cellStyle name="一般 8" xfId="48"/>
-    <cellStyle name="一般 9" xfId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 11" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 12" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 13" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 14" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 15" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 16" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="一般 17" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="一般 18" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="一般 19" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="一般 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="一般 20" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="一般 21" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="一般 22" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="一般 23" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="一般 24" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="一般 25" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="一般 26" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="一般 27" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="一般 28" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="一般 29" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="一般 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="一般 30" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="一般 31" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="一般 32" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="一般 33" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="一般 34" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="一般 35" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="一般 36" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="一般 37" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="一般 38" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="一般 39" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="一般 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="一般 40" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="一般 41" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="一般 42" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="一般 43" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="一般 44" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="一般 45" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="一般 46" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="一般 47" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="一般 48" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="一般 49" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="一般 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="一般 50" xfId="1" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="一般 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="一般 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="一般 8" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="一般 9" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,7 +660,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -637,6 +694,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -671,9 +729,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,36 +905,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="19.5">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:15" ht="20">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.5">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" ht="20">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -884,44 +943,44 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5">
+    <row r="4" spans="1:15" ht="20">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -931,8 +990,8 @@
       <c r="C4" s="1">
         <v>24</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
@@ -964,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.5">
+    <row r="5" spans="1:15" ht="20">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -974,8 +1033,8 @@
       <c r="C5" s="1">
         <v>26</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.5">
+    <row r="6" spans="1:15" ht="20">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1017,8 +1076,8 @@
       <c r="C6" s="1">
         <v>66</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1050,8 +1109,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.5">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:15" ht="20">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6">
@@ -1060,8 +1119,8 @@
       <c r="C7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="6">
         <v>8</v>
       </c>
@@ -1093,16 +1152,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.5">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:15" ht="20">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8">
         <v>928</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8">
         <v>400</v>
@@ -1126,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.5">
+    <row r="9" spans="1:15" ht="20">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.5">
+    <row r="10" spans="1:15" ht="20">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.5">
+    <row r="11" spans="1:15" ht="20">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.5">
+    <row r="12" spans="1:15" ht="20">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1314,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.5">
+    <row r="13" spans="1:15" ht="20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +1420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.5">
+    <row r="14" spans="1:15" ht="20">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1467,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.5">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:15" ht="20">
+      <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
@@ -1455,8 +1514,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.5">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:15" ht="20">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="8"/>
@@ -1488,7 +1547,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19.5">
+    <row r="17" spans="1:15" ht="20">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19.5">
+    <row r="18" spans="1:15" ht="20">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1582,7 +1641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="19.5">
+    <row r="19" spans="1:15" ht="20">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="19.5">
+    <row r="20" spans="1:15" ht="20">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="19.5">
+    <row r="21" spans="1:15" ht="20">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1723,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19.5">
+    <row r="22" spans="1:15" ht="20">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1770,7 +1829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19.5">
+    <row r="23" spans="1:15" ht="20">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19.5">
+    <row r="24" spans="1:15" ht="20">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1864,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19.5">
+    <row r="25" spans="1:15" ht="20">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +1970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19.5">
+    <row r="26" spans="1:15" ht="20">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19.5">
+    <row r="27" spans="1:15" ht="20">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -2005,7 +2064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="19.5">
+    <row r="28" spans="1:15" ht="20">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -2052,7 +2111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="19.5">
+    <row r="29" spans="1:15" ht="20">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -2099,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19.5">
+    <row r="30" spans="1:15" ht="20">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -2146,14 +2205,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="19.5">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:15" ht="20">
+      <c r="A31" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="11">
         <v>8</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>827</v>
       </c>
       <c r="D31" s="11">
@@ -2192,13 +2251,9 @@
       <c r="O31" s="9">
         <v>148</v>
       </c>
-      <c r="P31">
-        <f>SUM(C33:O33,E32,E16)</f>
-        <v>63959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="19.5">
-      <c r="A32" s="19" t="s">
+    </row>
+    <row r="32" spans="1:15" ht="20">
+      <c r="A32" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="12"/>
@@ -2230,69 +2285,86 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="19.5">
-      <c r="A33" s="13">
+    <row r="33" spans="1:15" ht="20">
+      <c r="A33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="13">
+        <v>11296</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
+        <v>5320</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13">
+        <v>12444</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13">
+        <v>16476</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13">
+        <v>3608</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26">
+        <f>SUM(C33:O33,E32,E16)</f>
+        <v>63959</v>
+      </c>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="27">
         <v>5126</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="14">
-        <v>11296</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
-        <v>5320</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14">
-        <v>12444</v>
-      </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14">
-        <v>16476</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14">
-        <v>3608</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14">
-        <v>3196</v>
-      </c>
+      <c r="D36" s="27"/>
+      <c r="O36" s="22"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="O38" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="D4:E8"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C36:D37"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>